--- a/database/seeders/Modules.xlsx
+++ b/database/seeders/Modules.xlsx
@@ -248,6 +248,7 @@
       <sz val="10"/>
       <name val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -292,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,10 +319,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -516,8 +513,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -669,7 +666,9 @@
       <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="L4" s="2" t="n">
         <v>1</v>
       </c>
@@ -815,7 +814,9 @@
       <c r="J8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="L8" s="2" t="n">
         <v>5</v>
       </c>
@@ -1031,16 +1032,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1049,16 +1050,16 @@
       <c r="F15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="0" t="n">
+      <c r="J15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="1" t="n">
         <v>9</v>
       </c>
     </row>

--- a/database/seeders/Modules.xlsx
+++ b/database/seeders/Modules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -194,6 +194,39 @@
   </si>
   <si>
     <t xml:space="preserve">bi bi-check2-circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi bi-newspapers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listPosts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listPost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de Posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">editPost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addPost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar Post</t>
   </si>
 </sst>
 </file>
@@ -293,7 +326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,6 +352,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,8 +550,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1063,6 +1100,195 @@
         <v>9</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/database/seeders/Modules.xlsx
+++ b/database/seeders/Modules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="73">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">module_id</t>
   </si>
   <si>
+    <t xml:space="preserve">query</t>
+  </si>
+  <si>
     <t xml:space="preserve">module</t>
   </si>
   <si>
@@ -181,12 +184,18 @@
     <t xml:space="preserve">widgetuser</t>
   </si>
   <si>
+    <t xml:space="preserve">SELECT COUNT(id) total from users where status&gt;0 and level_cat_id not in (SELECT level_cat_id from users WHERE id = ?)</t>
+  </si>
+  <si>
     <t xml:space="preserve">widgetmodule</t>
   </si>
   <si>
     <t xml:space="preserve">danger</t>
   </si>
   <si>
+    <t xml:space="preserve">SELECT COUNT(id) total from modules where status &gt;0 and module_id =0</t>
+  </si>
+  <si>
     <t xml:space="preserve">myPermits</t>
   </si>
   <si>
@@ -227,6 +236,9 @@
   </si>
   <si>
     <t xml:space="preserve">Agregar Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT COUNT(id) total from posts where status&gt;0 and user_id = ?</t>
   </si>
 </sst>
 </file>
@@ -347,15 +359,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -548,10 +560,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -599,6 +611,9 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -608,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="n">
@@ -644,28 +659,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="n">
@@ -680,28 +695,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>2</v>
@@ -718,28 +733,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>2</v>
@@ -756,28 +771,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="n">
@@ -792,28 +807,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="n">
@@ -828,28 +843,28 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>6</v>
@@ -866,28 +881,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>6</v>
@@ -904,28 +919,28 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="n">
@@ -940,28 +955,28 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="n">
@@ -976,28 +991,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="n">
@@ -1012,28 +1027,31 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L13" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,28 +1062,31 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L14" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,62 +1097,62 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>58</v>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1143,28 +1164,28 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="n">
@@ -1179,28 +1200,28 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>30</v>
+        <v>69</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>16</v>
@@ -1217,28 +1238,28 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>16</v>
@@ -1255,28 +1276,31 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L20" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/database/seeders/Modules.xlsx
+++ b/database/seeders/Modules.xlsx
@@ -211,7 +211,7 @@
     <t xml:space="preserve">Posts</t>
   </si>
   <si>
-    <t xml:space="preserve">bi bi-newspapers</t>
+    <t xml:space="preserve">bi bi-newspaper</t>
   </si>
   <si>
     <t xml:space="preserve">listPosts</t>
@@ -338,7 +338,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,10 +356,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,7 +559,7 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -611,7 +607,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -667,7 +663,7 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -741,7 +737,7 @@
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -815,7 +811,7 @@
       <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -889,7 +885,7 @@
       <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1035,7 +1031,7 @@
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1050,7 +1046,7 @@
       <c r="L13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1070,7 +1066,7 @@
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1085,7 +1081,7 @@
       <c r="L14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1105,7 +1101,7 @@
       <c r="E15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1172,7 +1168,7 @@
       <c r="E17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1208,7 +1204,7 @@
       <c r="E18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1284,7 +1280,7 @@
       <c r="E20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1299,7 +1295,7 @@
       <c r="L20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="2" t="s">
         <v>72</v>
       </c>
     </row>

--- a/database/seeders/Modules.xlsx
+++ b/database/seeders/Modules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="74">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">url_sub_module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system</t>
   </si>
   <si>
     <t xml:space="preserve">show_on</t>
@@ -248,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -282,6 +285,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -338,7 +346,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,6 +372,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,10 +568,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -567,7 +579,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="33.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,7 +611,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -610,6 +623,9 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -619,31 +635,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="n">
+      <c r="J2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -655,31 +674,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -691,33 +713,36 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="n">
+      <c r="L4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="M4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -729,33 +754,36 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="M5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -767,31 +795,34 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -803,31 +834,34 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -839,33 +873,36 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="M8" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -877,33 +914,36 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="M9" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -915,31 +955,34 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -951,31 +994,34 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -987,31 +1033,34 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1023,31 +1072,34 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,31 +1110,34 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>57</v>
+      <c r="N14" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,27 +1148,30 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1125,30 +1183,33 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1160,31 +1221,34 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2" t="n">
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1196,33 +1260,36 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="M18" s="2" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1234,33 +1301,36 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="M19" s="2" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1272,31 +1342,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F20" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>72</v>
+      <c r="N20" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/database/seeders/Modules.xlsx
+++ b/database/seeders/Modules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="79">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -242,6 +242,21 @@
   </si>
   <si>
     <t xml:space="preserve">SELECT COUNT(id) total from posts where status&gt;0 and user_id = ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphlogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi bi-graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="row mt-4 mb-4"&gt; &lt;div class="col-md-6"&gt; &lt;div class="card mb-3"&gt; &lt;div class="card-header p-2"&gt; &lt;div class="row"&gt; &lt;div class="col-2"&gt; &lt;h5 class="card-title"&gt; &lt;i class="fa fa-bar-chart"&gt;&lt;/i&gt; Logs: &lt;/h4&gt; &lt;/div&gt; &lt;div class="col-10"&gt; &lt;div class="float-end input-group"&gt; &lt;select class="form-select form-control-sm slt-tipo-graph-logs" title="Tipo de Gráfica"&gt; &lt;option class="form-control" value="1"&gt;Barra&lt;/option&gt; &lt;option class="form-control" value="2"&gt;Lineal&lt;/option&gt; &lt;/select&gt; &lt;select class="form-select form-control-sm slt-per-graph-logs" title="Periodo"&gt; &lt;option class="form-control" value="1"&gt;Dia&lt;/option&gt; &lt;option class="form-control" value="2"&gt;Semanal&lt;/option&gt; &lt;option class="form-control" value="3"&gt;Mensual&lt;/option&gt; &lt;option class="form-control" value="4"&gt;Anual&lt;/option&gt; &lt;/select&gt; &lt;input type="date" class="form-control form-control-sm dt-per-ini-graph-logs" value="&lt;?=dayWeek('Monday');?&gt;" title="Inicio de fecha"/&gt; &lt;input type="date" class="form-control form-control-sm dt-per-fin-graph-logs" value="&lt;?=dayWeek('Saturday');?&gt;" title="Fin de fecha"/&gt; &lt;button type="button" class="btn btn-primary ml-3 btn-sm btnReloadGraph" data-graph="loadGraphLogs" title="Recargar"&gt; &lt;i class="fas fa-sync-alt"&gt;&lt;/i&gt; &lt;/button&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class="card-body"&gt; &lt;div class="row div-cnt-graph-highcharts" id="div-cnt-graph-highcharts"&gt;&lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;script type="text/javascript"&gt; $(document).ready(function() { loadGraphLogs(); });&lt;/script&gt; &lt;/div&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -288,11 +303,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -302,6 +312,11 @@
       <name val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -570,8 +585,8 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -611,7 +626,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -682,7 +697,7 @@
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -762,7 +777,7 @@
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -842,7 +857,7 @@
       <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -922,7 +937,7 @@
       <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1080,7 +1095,7 @@
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1118,7 +1133,7 @@
       <c r="E14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1156,7 +1171,7 @@
       <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1229,7 +1244,7 @@
       <c r="E17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1268,7 +1283,7 @@
       <c r="E18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1350,7 +1365,7 @@
       <c r="E20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1370,6 +1385,44 @@
       </c>
       <c r="N20" s="2" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/database/seeders/Modules.xlsx
+++ b/database/seeders/Modules.xlsx
@@ -266,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -313,11 +313,6 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -361,7 +356,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -387,10 +382,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,15 +576,15 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="33.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.39"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.76"/>
   </cols>
@@ -1416,12 +1407,12 @@
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="4" t="s">
         <v>78</v>
       </c>
     </row>

--- a/database/seeders/Modules.xlsx
+++ b/database/seeders/Modules.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1087,7 +1087,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>19</v>

--- a/database/seeders/Modules.xlsx
+++ b/database/seeders/Modules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -46,9 +46,6 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">url_sub_module</t>
-  </si>
-  <si>
     <t xml:space="preserve">system</t>
   </si>
   <si>
@@ -79,19 +76,19 @@
     <t xml:space="preserve">info</t>
   </si>
   <si>
+    <t xml:space="preserve">panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listusers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi bi-list-ul</t>
+  </si>
+  <si>
     <t xml:space="preserve">listUsers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listusers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lista de usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bi bi-list-ul</t>
   </si>
   <si>
     <t xml:space="preserve">success</t>
@@ -574,19 +571,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,10 +610,10 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -629,9 +625,6 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -641,34 +634,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="n">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,34 +670,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="n">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -719,36 +706,33 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,36 +744,33 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>33</v>
+      <c r="K5" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -801,34 +782,31 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="n">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -840,34 +818,31 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -879,36 +854,33 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -920,36 +892,33 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>33</v>
+      <c r="K9" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="M9" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -961,34 +930,31 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2" t="n">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1000,34 +966,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1039,34 +1002,31 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2" t="n">
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1078,34 +1038,34 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,34 +1076,34 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,30 +1114,30 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1189,33 +1149,30 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="1" t="n">
+      <c r="I16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="1" t="n">
+      <c r="J16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1227,34 +1184,31 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="2" t="n">
+      <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="n">
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1266,36 +1220,33 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>33</v>
+      <c r="K18" s="2" t="n">
+        <v>16</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="M18" s="2" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1307,36 +1258,33 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>25</v>
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>16</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="M19" s="2" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1348,34 +1296,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="1" t="n">
+      <c r="I20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="1" t="n">
+      <c r="J20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>73</v>
+      <c r="M20" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,34 +1334,34 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
